--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col18a1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col18a1-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -91,13 +91,13 @@
     <t>Neutrophils</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Col18a1</t>
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.24880233333333</v>
+        <v>24.76998266666666</v>
       </c>
       <c r="H2">
-        <v>84.746407</v>
+        <v>74.30994799999999</v>
       </c>
       <c r="I2">
-        <v>0.4537768084967884</v>
+        <v>0.5176009234045941</v>
       </c>
       <c r="J2">
-        <v>0.4537768084967884</v>
+        <v>0.5176009234045942</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N2">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q2">
-        <v>2677.982252128452</v>
+        <v>4380.697695458312</v>
       </c>
       <c r="R2">
-        <v>24101.84026915607</v>
+        <v>39426.27925912481</v>
       </c>
       <c r="S2">
-        <v>0.07632360616131169</v>
+        <v>0.1381844721941322</v>
       </c>
       <c r="T2">
-        <v>0.0763236061613117</v>
+        <v>0.1381844721941322</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.24880233333333</v>
+        <v>24.76998266666666</v>
       </c>
       <c r="H3">
-        <v>84.746407</v>
+        <v>74.30994799999999</v>
       </c>
       <c r="I3">
-        <v>0.4537768084967884</v>
+        <v>0.5176009234045941</v>
       </c>
       <c r="J3">
-        <v>0.4537768084967884</v>
+        <v>0.5176009234045942</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q3">
-        <v>4114.19406552798</v>
+        <v>3607.534028803046</v>
       </c>
       <c r="R3">
-        <v>37027.74658975182</v>
+        <v>32467.80625922742</v>
       </c>
       <c r="S3">
-        <v>0.1172562391998636</v>
+        <v>0.1137958426597995</v>
       </c>
       <c r="T3">
-        <v>0.1172562391998636</v>
+        <v>0.1137958426597995</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.24880233333333</v>
+        <v>24.76998266666666</v>
       </c>
       <c r="H4">
-        <v>84.746407</v>
+        <v>74.30994799999999</v>
       </c>
       <c r="I4">
-        <v>0.4537768084967884</v>
+        <v>0.5176009234045941</v>
       </c>
       <c r="J4">
-        <v>0.4537768084967884</v>
+        <v>0.5176009234045942</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N4">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q4">
-        <v>2055.834009979132</v>
+        <v>2081.300600831369</v>
       </c>
       <c r="R4">
-        <v>18502.50608981218</v>
+        <v>18731.70540748232</v>
       </c>
       <c r="S4">
-        <v>0.05859212292611978</v>
+        <v>0.06565242456729797</v>
       </c>
       <c r="T4">
-        <v>0.05859212292611978</v>
+        <v>0.06565242456729799</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.24880233333333</v>
+        <v>24.76998266666666</v>
       </c>
       <c r="H5">
-        <v>84.746407</v>
+        <v>74.30994799999999</v>
       </c>
       <c r="I5">
-        <v>0.4537768084967884</v>
+        <v>0.5176009234045941</v>
       </c>
       <c r="J5">
-        <v>0.4537768084967884</v>
+        <v>0.5176009234045942</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N5">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q5">
-        <v>3272.225206797081</v>
+        <v>2103.684301164555</v>
       </c>
       <c r="R5">
-        <v>29450.02686117373</v>
+        <v>18933.158710481</v>
       </c>
       <c r="S5">
-        <v>0.09325977711622177</v>
+        <v>0.066358494702998</v>
       </c>
       <c r="T5">
-        <v>0.09325977711622178</v>
+        <v>0.06635849470299801</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>28.24880233333333</v>
+        <v>24.76998266666666</v>
       </c>
       <c r="H6">
-        <v>84.746407</v>
+        <v>74.30994799999999</v>
       </c>
       <c r="I6">
-        <v>0.4537768084967884</v>
+        <v>0.5176009234045941</v>
       </c>
       <c r="J6">
-        <v>0.4537768084967884</v>
+        <v>0.5176009234045942</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N6">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q6">
-        <v>1643.709841006201</v>
+        <v>1584.561147392256</v>
       </c>
       <c r="R6">
-        <v>14793.38856905581</v>
+        <v>14261.05032653031</v>
       </c>
       <c r="S6">
-        <v>0.0468464129845219</v>
+        <v>0.0499833042665181</v>
       </c>
       <c r="T6">
-        <v>0.0468464129845219</v>
+        <v>0.04998330426651811</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,14 +838,14 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>28.24880233333333</v>
+        <v>24.76998266666666</v>
       </c>
       <c r="H7">
-        <v>84.746407</v>
+        <v>74.30994799999999</v>
       </c>
       <c r="I7">
-        <v>0.4537768084967884</v>
+        <v>0.5176009234045941</v>
       </c>
       <c r="J7">
-        <v>0.4537768084967884</v>
+        <v>0.5176009234045942</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N7">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q7">
-        <v>2157.815934076908</v>
+        <v>2651.107655533174</v>
       </c>
       <c r="R7">
-        <v>19420.34340669217</v>
+        <v>23859.96889979856</v>
       </c>
       <c r="S7">
-        <v>0.06149865010874956</v>
+        <v>0.08362638501384832</v>
       </c>
       <c r="T7">
-        <v>0.06149865010874957</v>
+        <v>0.08362638501384834</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>24.205355</v>
       </c>
       <c r="I8">
-        <v>0.129608193777841</v>
+        <v>0.1686007652614157</v>
       </c>
       <c r="J8">
-        <v>0.129608193777841</v>
+        <v>0.1686007652614158</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N8">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q8">
-        <v>764.8880158007015</v>
+        <v>1426.946804837629</v>
       </c>
       <c r="R8">
-        <v>6883.992142206314</v>
+        <v>12842.52124353866</v>
       </c>
       <c r="S8">
-        <v>0.02179962605393685</v>
+        <v>0.04501152665248265</v>
       </c>
       <c r="T8">
-        <v>0.02179962605393686</v>
+        <v>0.04501152665248265</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>24.205355</v>
       </c>
       <c r="I9">
-        <v>0.129608193777841</v>
+        <v>0.1686007652614157</v>
       </c>
       <c r="J9">
-        <v>0.129608193777841</v>
+        <v>0.1686007652614158</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q9">
         <v>1175.100295343471</v>
@@ -1013,10 +1013,10 @@
         <v>10575.90265809124</v>
       </c>
       <c r="S9">
-        <v>0.03349084635290337</v>
+        <v>0.03706729506935721</v>
       </c>
       <c r="T9">
-        <v>0.03349084635290338</v>
+        <v>0.03706729506935722</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>24.205355</v>
       </c>
       <c r="I10">
-        <v>0.129608193777841</v>
+        <v>0.1686007652614157</v>
       </c>
       <c r="J10">
-        <v>0.129608193777841</v>
+        <v>0.1686007652614158</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N10">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q10">
-        <v>587.1894018187511</v>
+        <v>677.9525657161889</v>
       </c>
       <c r="R10">
-        <v>5284.70461636876</v>
+        <v>6101.5730914457</v>
       </c>
       <c r="S10">
-        <v>0.01673514176984952</v>
+        <v>0.02138529612834838</v>
       </c>
       <c r="T10">
-        <v>0.01673514176984952</v>
+        <v>0.02138529612834838</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>24.205355</v>
       </c>
       <c r="I11">
-        <v>0.129608193777841</v>
+        <v>0.1686007652614157</v>
       </c>
       <c r="J11">
-        <v>0.129608193777841</v>
+        <v>0.1686007652614158</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N11">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q11">
-        <v>934.6162931777361</v>
+        <v>685.2437215756762</v>
       </c>
       <c r="R11">
-        <v>8411.546638599626</v>
+        <v>6167.193494181085</v>
       </c>
       <c r="S11">
-        <v>0.0266369524352699</v>
+        <v>0.02161528792284562</v>
       </c>
       <c r="T11">
-        <v>0.02663695243526991</v>
+        <v>0.02161528792284563</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -1169,10 +1169,10 @@
         <v>24.205355</v>
       </c>
       <c r="I12">
-        <v>0.129608193777841</v>
+        <v>0.1686007652614157</v>
       </c>
       <c r="J12">
-        <v>0.129608193777841</v>
+        <v>0.1686007652614158</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N12">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q12">
-        <v>469.4780773248432</v>
+        <v>516.1471125216895</v>
       </c>
       <c r="R12">
-        <v>4225.302695923589</v>
+        <v>4645.324012695204</v>
       </c>
       <c r="S12">
-        <v>0.01338032014462822</v>
+        <v>0.01628131436512491</v>
       </c>
       <c r="T12">
-        <v>0.01338032014462822</v>
+        <v>0.01628131436512491</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>24.205355</v>
       </c>
       <c r="I13">
-        <v>0.129608193777841</v>
+        <v>0.1686007652614157</v>
       </c>
       <c r="J13">
-        <v>0.129608193777841</v>
+        <v>0.1686007652614158</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N13">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q13">
-        <v>616.3175827500056</v>
+        <v>863.5586980278628</v>
       </c>
       <c r="R13">
-        <v>5546.858244750051</v>
+        <v>7772.028282250765</v>
       </c>
       <c r="S13">
-        <v>0.01756530702125308</v>
+        <v>0.02724004512325696</v>
       </c>
       <c r="T13">
-        <v>0.01756530702125309</v>
+        <v>0.02724004512325697</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.06430933333333333</v>
+        <v>0.01516633333333333</v>
       </c>
       <c r="H14">
-        <v>0.192928</v>
+        <v>0.045499</v>
       </c>
       <c r="I14">
-        <v>0.001033037921119988</v>
+        <v>0.0003169202111941409</v>
       </c>
       <c r="J14">
-        <v>0.001033037921119988</v>
+        <v>0.000316920211194141</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N14">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q14">
-        <v>6.096515217909332</v>
+        <v>2.682243357856444</v>
       </c>
       <c r="R14">
-        <v>54.86863696118399</v>
+        <v>24.140190220708</v>
       </c>
       <c r="S14">
-        <v>0.000173753215159783</v>
+        <v>8.460852778904949E-05</v>
       </c>
       <c r="T14">
-        <v>0.000173753215159783</v>
+        <v>8.460852778904951E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.06430933333333333</v>
+        <v>0.01516633333333333</v>
       </c>
       <c r="H15">
-        <v>0.192928</v>
+        <v>0.045499</v>
       </c>
       <c r="I15">
-        <v>0.001033037921119988</v>
+        <v>0.0003169202111941409</v>
       </c>
       <c r="J15">
-        <v>0.001033037921119988</v>
+        <v>0.000316920211194141</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q15">
-        <v>9.366098938851554</v>
+        <v>2.208845453323555</v>
       </c>
       <c r="R15">
-        <v>84.294890449664</v>
+        <v>19.879609079912</v>
       </c>
       <c r="S15">
-        <v>0.00026693770883232</v>
+        <v>6.967569194340194E-05</v>
       </c>
       <c r="T15">
-        <v>0.00026693770883232</v>
+        <v>6.967569194340196E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.06430933333333333</v>
+        <v>0.01516633333333333</v>
       </c>
       <c r="H16">
-        <v>0.192928</v>
+        <v>0.045499</v>
       </c>
       <c r="I16">
-        <v>0.001033037921119988</v>
+        <v>0.0003169202111941409</v>
       </c>
       <c r="J16">
-        <v>0.001033037921119988</v>
+        <v>0.000316920211194141</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N16">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q16">
-        <v>4.680174156259556</v>
+        <v>1.274352877184444</v>
       </c>
       <c r="R16">
-        <v>42.121567406336</v>
+        <v>11.46917589466</v>
       </c>
       <c r="S16">
-        <v>0.0001333869067970095</v>
+        <v>4.019811271281593E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001333869067970095</v>
+        <v>4.019811271281595E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.06430933333333333</v>
+        <v>0.01516633333333333</v>
       </c>
       <c r="H17">
-        <v>0.192928</v>
+        <v>0.045499</v>
       </c>
       <c r="I17">
-        <v>0.001033037921119988</v>
+        <v>0.0003169202111941409</v>
       </c>
       <c r="J17">
-        <v>0.001033037921119988</v>
+        <v>0.000316920211194141</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N17">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q17">
-        <v>7.449328969155555</v>
+        <v>1.288058121352556</v>
       </c>
       <c r="R17">
-        <v>67.0439607224</v>
+        <v>11.592523092173</v>
       </c>
       <c r="S17">
-        <v>0.0002123089687976793</v>
+        <v>4.063043013422249E-05</v>
       </c>
       <c r="T17">
-        <v>0.0002123089687976793</v>
+        <v>4.06304301342225E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.06430933333333333</v>
+        <v>0.01516633333333333</v>
       </c>
       <c r="H18">
-        <v>0.192928</v>
+        <v>0.045499</v>
       </c>
       <c r="I18">
-        <v>0.001033037921119988</v>
+        <v>0.0003169202111941409</v>
       </c>
       <c r="J18">
-        <v>0.001033037921119988</v>
+        <v>0.000316920211194141</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N18">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q18">
-        <v>3.741959847402666</v>
+        <v>0.9702058686032221</v>
       </c>
       <c r="R18">
-        <v>33.677638626624</v>
+        <v>8.731852817428999</v>
       </c>
       <c r="S18">
-        <v>0.0001066474094208836</v>
+        <v>3.060411724177639E-05</v>
       </c>
       <c r="T18">
-        <v>0.0001066474094208837</v>
+        <v>3.06041172417764E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.06430933333333333</v>
+        <v>0.01516633333333333</v>
       </c>
       <c r="H19">
-        <v>0.192928</v>
+        <v>0.045499</v>
       </c>
       <c r="I19">
-        <v>0.001033037921119988</v>
+        <v>0.0003169202111941409</v>
       </c>
       <c r="J19">
-        <v>0.001033037921119988</v>
+        <v>0.000316920211194141</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N19">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q19">
-        <v>4.912339381297778</v>
+        <v>1.623238213261889</v>
       </c>
       <c r="R19">
-        <v>44.21105443168</v>
+        <v>14.609143919357</v>
       </c>
       <c r="S19">
-        <v>0.0001400037121123121</v>
+        <v>5.120333137287467E-05</v>
       </c>
       <c r="T19">
-        <v>0.0001400037121123122</v>
+        <v>5.120333137287468E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>25.73790033333333</v>
+        <v>14.394543</v>
       </c>
       <c r="H20">
-        <v>77.213701</v>
+        <v>43.183629</v>
       </c>
       <c r="I20">
-        <v>0.4134427411418784</v>
+        <v>0.3007926508892377</v>
       </c>
       <c r="J20">
-        <v>0.4134427411418784</v>
+        <v>0.3007926508892378</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N20">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q20">
-        <v>2439.94911665285</v>
+        <v>2545.748303333852</v>
       </c>
       <c r="R20">
-        <v>21959.54204987565</v>
+        <v>22911.73473000467</v>
       </c>
       <c r="S20">
-        <v>0.0695395629620177</v>
+        <v>0.0803029357629509</v>
       </c>
       <c r="T20">
-        <v>0.06953956296201771</v>
+        <v>0.08030293576295092</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>25.73790033333333</v>
+        <v>14.394543</v>
       </c>
       <c r="H21">
-        <v>77.213701</v>
+        <v>43.183629</v>
       </c>
       <c r="I21">
-        <v>0.4134427411418784</v>
+        <v>0.3007926508892377</v>
       </c>
       <c r="J21">
-        <v>0.4134427411418784</v>
+        <v>0.3007926508892378</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>436.924088</v>
       </c>
       <c r="O21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q21">
-        <v>3748.50287672552</v>
+        <v>2096.440857483928</v>
       </c>
       <c r="R21">
-        <v>33736.52589052969</v>
+        <v>18867.96771735535</v>
       </c>
       <c r="S21">
-        <v>0.1068338884734399</v>
+        <v>0.06613000793868345</v>
       </c>
       <c r="T21">
-        <v>0.1068338884734399</v>
+        <v>0.06613000793868347</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>25.73790033333333</v>
+        <v>14.394543</v>
       </c>
       <c r="H22">
-        <v>77.213701</v>
+        <v>43.183629</v>
       </c>
       <c r="I22">
-        <v>0.4134427411418784</v>
+        <v>0.3007926508892377</v>
       </c>
       <c r="J22">
-        <v>0.4134427411418784</v>
+        <v>0.3007926508892378</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N22">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q22">
-        <v>1873.100679680257</v>
+        <v>1209.50310695654</v>
       </c>
       <c r="R22">
-        <v>16857.90611712231</v>
+        <v>10885.52796260886</v>
       </c>
       <c r="S22">
-        <v>0.05338414713644034</v>
+        <v>0.03815249534913793</v>
       </c>
       <c r="T22">
-        <v>0.05338414713644034</v>
+        <v>0.03815249534913794</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>25.73790033333333</v>
+        <v>14.394543</v>
       </c>
       <c r="H23">
-        <v>77.213701</v>
+        <v>43.183629</v>
       </c>
       <c r="I23">
-        <v>0.4134427411418784</v>
+        <v>0.3007926508892377</v>
       </c>
       <c r="J23">
-        <v>0.4134427411418784</v>
+        <v>0.3007926508892378</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N23">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q23">
-        <v>2981.372634739464</v>
+        <v>1222.510913271187</v>
       </c>
       <c r="R23">
-        <v>26832.35371265517</v>
+        <v>11002.59821944068</v>
       </c>
       <c r="S23">
-        <v>0.08497035804218331</v>
+        <v>0.03856281283163771</v>
       </c>
       <c r="T23">
-        <v>0.08497035804218332</v>
+        <v>0.03856281283163771</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,10 +1892,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>25.73790033333333</v>
+        <v>14.394543</v>
       </c>
       <c r="H24">
-        <v>77.213701</v>
+        <v>43.183629</v>
       </c>
       <c r="I24">
-        <v>0.4134427411418784</v>
+        <v>0.3007926508892377</v>
       </c>
       <c r="J24">
-        <v>0.4134427411418784</v>
+        <v>0.3007926508892378</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N24">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q24">
-        <v>1497.608272575028</v>
+        <v>920.8336509238509</v>
       </c>
       <c r="R24">
-        <v>13478.47445317526</v>
+        <v>8287.502858314658</v>
       </c>
       <c r="S24">
-        <v>0.04268245761863852</v>
+        <v>0.02904672289152234</v>
       </c>
       <c r="T24">
-        <v>0.04268245761863852</v>
+        <v>0.02904672289152235</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,14 +1954,14 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
       <c r="E25">
         <v>3</v>
       </c>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>25.73790033333333</v>
+        <v>14.394543</v>
       </c>
       <c r="H25">
-        <v>77.213701</v>
+        <v>43.183629</v>
       </c>
       <c r="I25">
-        <v>0.4134427411418784</v>
+        <v>0.3007926508892377</v>
       </c>
       <c r="J25">
-        <v>0.4134427411418784</v>
+        <v>0.3007926508892378</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N25">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q25">
-        <v>1966.017914445034</v>
+        <v>1540.634228886883</v>
       </c>
       <c r="R25">
-        <v>17694.16123000531</v>
+        <v>13865.70805998195</v>
       </c>
       <c r="S25">
-        <v>0.05603232690915858</v>
+        <v>0.0485976761153054</v>
       </c>
       <c r="T25">
-        <v>0.05603232690915859</v>
+        <v>0.0485976761153054</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.133172</v>
+        <v>0.201254</v>
       </c>
       <c r="H26">
-        <v>0.399516</v>
+        <v>0.603762</v>
       </c>
       <c r="I26">
-        <v>0.002139218662372351</v>
+        <v>0.00420546342888848</v>
       </c>
       <c r="J26">
-        <v>0.002139218662372351</v>
+        <v>0.00420546342888848</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N26">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q26">
-        <v>12.624685757372</v>
+        <v>35.59279575872267</v>
       </c>
       <c r="R26">
-        <v>113.622171816348</v>
+        <v>320.335161828504</v>
       </c>
       <c r="S26">
-        <v>0.0003598087862196045</v>
+        <v>0.001122737070154775</v>
       </c>
       <c r="T26">
-        <v>0.0003598087862196046</v>
+        <v>0.001122737070154775</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.133172</v>
+        <v>0.201254</v>
       </c>
       <c r="H27">
-        <v>0.399516</v>
+        <v>0.603762</v>
       </c>
       <c r="I27">
-        <v>0.002139218662372351</v>
+        <v>0.00420546342888848</v>
       </c>
       <c r="J27">
-        <v>0.002139218662372351</v>
+        <v>0.00420546342888848</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>436.924088</v>
       </c>
       <c r="O27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q27">
-        <v>19.39535154904533</v>
+        <v>29.31090680211733</v>
       </c>
       <c r="R27">
-        <v>174.558163941408</v>
+        <v>263.798161219056</v>
       </c>
       <c r="S27">
-        <v>0.0005527755726584693</v>
+        <v>0.0009245815318827282</v>
       </c>
       <c r="T27">
-        <v>0.0005527755726584694</v>
+        <v>0.0009245815318827282</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.133172</v>
+        <v>0.201254</v>
       </c>
       <c r="H28">
-        <v>0.399516</v>
+        <v>0.603762</v>
       </c>
       <c r="I28">
-        <v>0.002139218662372351</v>
+        <v>0.00420546342888848</v>
       </c>
       <c r="J28">
-        <v>0.002139218662372351</v>
+        <v>0.00420546342888848</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N28">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q28">
-        <v>9.691721565621332</v>
+        <v>16.91039015878667</v>
       </c>
       <c r="R28">
-        <v>87.22549409059199</v>
+        <v>152.19351142908</v>
       </c>
       <c r="S28">
-        <v>0.000276218088903187</v>
+        <v>0.0005334203592983402</v>
       </c>
       <c r="T28">
-        <v>0.000276218088903187</v>
+        <v>0.0005334203592983402</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.133172</v>
+        <v>0.201254</v>
       </c>
       <c r="H29">
-        <v>0.399516</v>
+        <v>0.603762</v>
       </c>
       <c r="I29">
-        <v>0.002139218662372351</v>
+        <v>0.00420546342888848</v>
       </c>
       <c r="J29">
-        <v>0.002139218662372351</v>
+        <v>0.00420546342888848</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N29">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q29">
-        <v>15.42609736503333</v>
+        <v>17.09225581801934</v>
       </c>
       <c r="R29">
-        <v>138.8348762853</v>
+        <v>153.830302362174</v>
       </c>
       <c r="S29">
-        <v>0.0004396501802650401</v>
+        <v>0.0005391571190289554</v>
       </c>
       <c r="T29">
-        <v>0.0004396501802650401</v>
+        <v>0.0005391571190289554</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
         <v>24</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.133172</v>
+        <v>0.201254</v>
       </c>
       <c r="H30">
-        <v>0.399516</v>
+        <v>0.603762</v>
       </c>
       <c r="I30">
-        <v>0.002139218662372351</v>
+        <v>0.00420546342888848</v>
       </c>
       <c r="J30">
-        <v>0.002139218662372351</v>
+        <v>0.00420546342888848</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N30">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q30">
-        <v>7.748863982391998</v>
+        <v>12.87442439701134</v>
       </c>
       <c r="R30">
-        <v>69.73977584152799</v>
+        <v>115.869819573102</v>
       </c>
       <c r="S30">
-        <v>0.000220845841050515</v>
+        <v>0.0004061100910817689</v>
       </c>
       <c r="T30">
-        <v>0.000220845841050515</v>
+        <v>0.0004061100910817689</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,31 +2326,31 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>27</v>
-      </c>
       <c r="E31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.133172</v>
+        <v>0.201254</v>
       </c>
       <c r="H31">
-        <v>0.399516</v>
+        <v>0.603762</v>
       </c>
       <c r="I31">
-        <v>0.002139218662372351</v>
+        <v>0.00420546342888848</v>
       </c>
       <c r="J31">
-        <v>0.002139218662372351</v>
+        <v>0.00420546342888848</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,400 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N31">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q31">
-        <v>10.17249015310667</v>
+        <v>21.54002395910734</v>
       </c>
       <c r="R31">
-        <v>91.55241137796001</v>
+        <v>193.860215631966</v>
       </c>
       <c r="S31">
-        <v>0.0002899201932755354</v>
+        <v>0.0006794572574419121</v>
       </c>
       <c r="T31">
-        <v>0.0002899201932755354</v>
+        <v>0.0006794572574419121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.4059703333333333</v>
+      </c>
+      <c r="H32">
+        <v>1.217911</v>
+      </c>
+      <c r="I32">
+        <v>0.008483276804669716</v>
+      </c>
+      <c r="J32">
+        <v>0.008483276804669716</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>176.8550973333333</v>
+      </c>
+      <c r="N32">
+        <v>530.565292</v>
+      </c>
+      <c r="O32">
+        <v>0.2669710696905332</v>
+      </c>
+      <c r="P32">
+        <v>0.2669710696905332</v>
+      </c>
+      <c r="Q32">
+        <v>71.79792281611245</v>
+      </c>
+      <c r="R32">
+        <v>646.181305345012</v>
+      </c>
+      <c r="S32">
+        <v>0.002264789483023563</v>
+      </c>
+      <c r="T32">
+        <v>0.002264789483023563</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.4059703333333333</v>
+      </c>
+      <c r="H33">
+        <v>1.217911</v>
+      </c>
+      <c r="I33">
+        <v>0.008483276804669716</v>
+      </c>
+      <c r="J33">
+        <v>0.008483276804669716</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>145.6413626666667</v>
+      </c>
+      <c r="N33">
+        <v>436.924088</v>
+      </c>
+      <c r="O33">
+        <v>0.2198524722701247</v>
+      </c>
+      <c r="P33">
+        <v>0.2198524722701247</v>
+      </c>
+      <c r="Q33">
+        <v>59.12607254890755</v>
+      </c>
+      <c r="R33">
+        <v>532.1346529401679</v>
+      </c>
+      <c r="S33">
+        <v>0.001865069378458441</v>
+      </c>
+      <c r="T33">
+        <v>0.001865069378458441</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.4059703333333333</v>
+      </c>
+      <c r="H34">
+        <v>1.217911</v>
+      </c>
+      <c r="I34">
+        <v>0.008483276804669716</v>
+      </c>
+      <c r="J34">
+        <v>0.008483276804669716</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>84.02511333333334</v>
+      </c>
+      <c r="N34">
+        <v>252.07534</v>
+      </c>
+      <c r="O34">
+        <v>0.1268398520919549</v>
+      </c>
+      <c r="P34">
+        <v>0.1268398520919549</v>
+      </c>
+      <c r="Q34">
+        <v>34.11170326830445</v>
+      </c>
+      <c r="R34">
+        <v>307.00532941474</v>
+      </c>
+      <c r="S34">
+        <v>0.001076017575159418</v>
+      </c>
+      <c r="T34">
+        <v>0.001076017575159418</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.4059703333333333</v>
+      </c>
+      <c r="H35">
+        <v>1.217911</v>
+      </c>
+      <c r="I35">
+        <v>0.008483276804669716</v>
+      </c>
+      <c r="J35">
+        <v>0.008483276804669716</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>84.92877566666668</v>
+      </c>
+      <c r="N35">
+        <v>254.786327</v>
+      </c>
+      <c r="O35">
+        <v>0.1282039727953256</v>
+      </c>
+      <c r="P35">
+        <v>0.1282039727953256</v>
+      </c>
+      <c r="Q35">
+        <v>34.47856336698856</v>
+      </c>
+      <c r="R35">
+        <v>310.307070302897</v>
+      </c>
+      <c r="S35">
+        <v>0.001087589788681093</v>
+      </c>
+      <c r="T35">
+        <v>0.001087589788681093</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.4059703333333333</v>
+      </c>
+      <c r="H36">
+        <v>1.217911</v>
+      </c>
+      <c r="I36">
+        <v>0.008483276804669716</v>
+      </c>
+      <c r="J36">
+        <v>0.008483276804669716</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>63.97102366666667</v>
+      </c>
+      <c r="N36">
+        <v>191.913071</v>
+      </c>
+      <c r="O36">
+        <v>0.09656726254996952</v>
+      </c>
+      <c r="P36">
+        <v>0.09656726254996952</v>
+      </c>
+      <c r="Q36">
+        <v>25.97033780163122</v>
+      </c>
+      <c r="R36">
+        <v>233.733040214681</v>
+      </c>
+      <c r="S36">
+        <v>0.0008192068184806069</v>
+      </c>
+      <c r="T36">
+        <v>0.0008192068184806069</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.4059703333333333</v>
+      </c>
+      <c r="H37">
+        <v>1.217911</v>
+      </c>
+      <c r="I37">
+        <v>0.008483276804669716</v>
+      </c>
+      <c r="J37">
+        <v>0.008483276804669716</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>107.0290476666667</v>
+      </c>
+      <c r="N37">
+        <v>321.087143</v>
+      </c>
+      <c r="O37">
+        <v>0.1615653706020921</v>
+      </c>
+      <c r="P37">
+        <v>0.1615653706020921</v>
+      </c>
+      <c r="Q37">
+        <v>43.45061815758589</v>
+      </c>
+      <c r="R37">
+        <v>391.055563418273</v>
+      </c>
+      <c r="S37">
+        <v>0.001370603760866594</v>
+      </c>
+      <c r="T37">
+        <v>0.001370603760866594</v>
       </c>
     </row>
   </sheetData>
